--- a/HE/W_in_progress/AnalisiCodeT5770.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5770.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65540800-7FA4-477A-A2F5-A01FB3D629A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B45CB-AD7F-41D5-BEEC-A2C62B816483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1151">
   <si>
     <t>IN</t>
   </si>
@@ -3487,6 +3487,9 @@
   </si>
   <si>
     <t>wait for 10 ns; cs_o : out std_logic;</t>
+  </si>
+  <si>
+    <t>SBERT_M</t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3523,6 +3526,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3570,7 +3578,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3873,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3888,14 +3898,14 @@
     <col min="5" max="5" width="4.5546875" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="40" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="37.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3926,14 +3936,17 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3955,7 +3968,7 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
@@ -3965,10 +3978,13 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +4006,7 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>0.2</v>
       </c>
       <c r="I3">
@@ -4000,13 +4016,16 @@
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+        <v>0.79690897464752197</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4047,7 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
@@ -4038,10 +4057,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4085,7 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>0.56000000000000005</v>
       </c>
       <c r="I5">
@@ -4073,10 +4095,13 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4098,7 +4123,7 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>0.2</v>
       </c>
       <c r="I6">
@@ -4108,13 +4133,16 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+        <v>0.88973814249038696</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4136,7 +4164,7 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>0.97</v>
       </c>
       <c r="I7">
@@ -4146,10 +4174,13 @@
         <v>36</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99814051389694214</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4171,7 +4202,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>0.45</v>
       </c>
       <c r="I8">
@@ -4181,13 +4212,16 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+        <v>0.9043426513671875</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4209,7 +4243,7 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>0.48</v>
       </c>
       <c r="I9">
@@ -4219,13 +4253,16 @@
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+        <v>0.95131599903106689</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4247,7 +4284,7 @@
       <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>0.8</v>
       </c>
       <c r="I10">
@@ -4257,10 +4294,13 @@
         <v>52</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99312281608581543</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4282,7 +4322,7 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
@@ -4292,10 +4332,13 @@
         <v>15</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4360,7 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
@@ -4329,8 +4372,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4352,7 +4398,7 @@
       <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
@@ -4364,8 +4410,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4387,7 +4436,7 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
@@ -4397,10 +4446,13 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4422,7 +4474,7 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
@@ -4432,10 +4484,13 @@
         <v>15</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4457,7 +4512,7 @@
       <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>0.56000000000000005</v>
       </c>
       <c r="I16">
@@ -4467,10 +4522,13 @@
         <v>67</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4492,7 +4550,7 @@
       <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
@@ -4502,10 +4560,13 @@
         <v>72</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98839724063873291</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4527,7 +4588,7 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
@@ -4539,8 +4600,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4562,7 +4626,7 @@
       <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
@@ -4572,10 +4636,13 @@
         <v>15</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4664,7 @@
       <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
@@ -4607,10 +4674,13 @@
         <v>15</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -4632,7 +4702,7 @@
       <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
@@ -4644,8 +4714,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -4667,7 +4740,7 @@
       <c r="G22" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
@@ -4679,8 +4752,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -4702,7 +4778,7 @@
       <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
@@ -4712,10 +4788,13 @@
         <v>15</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -4737,7 +4816,7 @@
       <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
@@ -4747,10 +4826,13 @@
         <v>15</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -4772,7 +4854,7 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
@@ -4782,10 +4864,13 @@
         <v>15</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -4807,7 +4892,7 @@
       <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
@@ -4819,8 +4904,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -4842,7 +4930,7 @@
       <c r="G27" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>0.69</v>
       </c>
       <c r="I27">
@@ -4852,13 +4940,16 @@
         <v>97</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+        <v>0.97363382577896118</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -4880,7 +4971,7 @@
       <c r="G28" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>0.56999999999999995</v>
       </c>
       <c r="I28">
@@ -4890,13 +4981,16 @@
         <v>20</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
+        <v>0.96954292058944702</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -4918,7 +5012,7 @@
       <c r="G29" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
@@ -4928,10 +5022,13 @@
         <v>107</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -4953,7 +5050,7 @@
       <c r="G30" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
@@ -4965,8 +5062,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -4988,7 +5088,7 @@
       <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
@@ -4998,10 +5098,13 @@
         <v>15</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -5023,7 +5126,7 @@
       <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
@@ -5035,8 +5138,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -5058,7 +5164,7 @@
       <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
@@ -5068,10 +5174,13 @@
         <v>15</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5093,7 +5202,7 @@
       <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
@@ -5105,8 +5214,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5128,7 +5240,7 @@
       <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
@@ -5140,8 +5252,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -5163,7 +5278,7 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
@@ -5173,10 +5288,13 @@
         <v>15</v>
       </c>
       <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -5198,7 +5316,7 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
@@ -5210,8 +5328,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5233,7 +5354,7 @@
       <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
@@ -5243,10 +5364,13 @@
         <v>15</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -5268,7 +5392,7 @@
       <c r="G39" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
@@ -5280,8 +5404,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -5303,7 +5430,7 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
@@ -5315,8 +5442,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -5338,7 +5468,7 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
@@ -5348,10 +5478,13 @@
         <v>15</v>
       </c>
       <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5373,7 +5506,7 @@
       <c r="G42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
@@ -5383,10 +5516,13 @@
         <v>15</v>
       </c>
       <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -5408,7 +5544,7 @@
       <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
@@ -5418,10 +5554,13 @@
         <v>15</v>
       </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -5443,7 +5582,7 @@
       <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
@@ -5453,10 +5592,13 @@
         <v>15</v>
       </c>
       <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -5478,7 +5620,7 @@
       <c r="G45" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45">
         <v>0.85</v>
       </c>
       <c r="I45">
@@ -5488,10 +5630,13 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98834908008575439</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -5513,7 +5658,7 @@
       <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
@@ -5523,10 +5668,13 @@
         <v>15</v>
       </c>
       <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -5548,7 +5696,7 @@
       <c r="G47" t="s">
         <v>150</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
@@ -5558,10 +5706,13 @@
         <v>67</v>
       </c>
       <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -5583,7 +5734,7 @@
       <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
@@ -5593,10 +5744,13 @@
         <v>155</v>
       </c>
       <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -5618,7 +5772,7 @@
       <c r="G49" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
@@ -5630,8 +5784,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -5653,7 +5810,7 @@
       <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
@@ -5665,8 +5822,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -5688,7 +5848,7 @@
       <c r="G51" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
@@ -5698,10 +5858,13 @@
         <v>15</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -5723,7 +5886,7 @@
       <c r="G52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
@@ -5735,8 +5898,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -5758,7 +5924,7 @@
       <c r="G53" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
@@ -5768,10 +5934,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -5793,7 +5962,7 @@
       <c r="G54" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
@@ -5803,10 +5972,13 @@
         <v>15</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -5828,7 +6000,7 @@
       <c r="G55" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
@@ -5838,10 +6010,13 @@
         <v>15</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -5863,7 +6038,7 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
@@ -5875,8 +6050,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -5898,7 +6076,7 @@
       <c r="G57" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
@@ -5910,8 +6088,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -5933,7 +6114,7 @@
       <c r="G58" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
@@ -5945,8 +6126,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -5968,7 +6152,7 @@
       <c r="G59" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
@@ -5980,8 +6164,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -6003,7 +6190,7 @@
       <c r="G60" t="s">
         <v>180</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60">
         <v>0.47</v>
       </c>
       <c r="I60">
@@ -6015,8 +6202,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -6038,7 +6228,7 @@
       <c r="G61" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
@@ -6048,10 +6238,13 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -6073,7 +6266,7 @@
       <c r="G62" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
@@ -6083,10 +6276,13 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -6108,7 +6304,7 @@
       <c r="G63" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
@@ -6118,10 +6314,13 @@
         <v>15</v>
       </c>
       <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -6143,7 +6342,7 @@
       <c r="G64" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
@@ -6153,10 +6352,13 @@
         <v>15</v>
       </c>
       <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -6178,7 +6380,7 @@
       <c r="G65" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
@@ -6188,10 +6390,13 @@
         <v>15</v>
       </c>
       <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -6213,7 +6418,7 @@
       <c r="G66" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
@@ -6223,10 +6428,13 @@
         <v>15</v>
       </c>
       <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -6248,7 +6456,7 @@
       <c r="G67" t="s">
         <v>196</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67">
         <v>0.82</v>
       </c>
       <c r="I67">
@@ -6260,8 +6468,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -6283,7 +6494,7 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
@@ -6293,10 +6504,13 @@
         <v>15</v>
       </c>
       <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -6318,7 +6532,7 @@
       <c r="G69" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69">
         <v>0.54</v>
       </c>
       <c r="I69">
@@ -6330,8 +6544,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -6353,7 +6570,7 @@
       <c r="G70" t="s">
         <v>207</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
@@ -6363,10 +6580,13 @@
         <v>208</v>
       </c>
       <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.94716519117355347</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -6388,7 +6608,7 @@
       <c r="G71" t="s">
         <v>212</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71">
         <v>0.65</v>
       </c>
       <c r="I71">
@@ -6398,10 +6618,13 @@
         <v>213</v>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.93708515167236328</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -6423,7 +6646,7 @@
       <c r="G72" t="s">
         <v>217</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
@@ -6433,10 +6656,13 @@
         <v>218</v>
       </c>
       <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.59410732984542847</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -6458,7 +6684,7 @@
       <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
@@ -6468,10 +6694,13 @@
         <v>15</v>
       </c>
       <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -6493,7 +6722,7 @@
       <c r="G74" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
@@ -6505,8 +6734,11 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -6528,7 +6760,7 @@
       <c r="G75" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
@@ -6540,8 +6772,11 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -6563,7 +6798,7 @@
       <c r="G76" t="s">
         <v>227</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
@@ -6575,8 +6810,11 @@
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -6598,7 +6836,7 @@
       <c r="G77" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
@@ -6608,10 +6846,13 @@
         <v>15</v>
       </c>
       <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -6633,7 +6874,7 @@
       <c r="G78" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
@@ -6643,10 +6884,13 @@
         <v>15</v>
       </c>
       <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -6668,7 +6912,7 @@
       <c r="G79" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
@@ -6680,8 +6924,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -6703,7 +6950,7 @@
       <c r="G80" t="s">
         <v>217</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
@@ -6713,10 +6960,13 @@
         <v>218</v>
       </c>
       <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.59410732984542847</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>236</v>
       </c>
@@ -6738,7 +6988,7 @@
       <c r="G81" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
@@ -6750,8 +7000,11 @@
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>238</v>
       </c>
@@ -6773,7 +7026,7 @@
       <c r="G82" t="s">
         <v>241</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
@@ -6783,10 +7036,13 @@
         <v>181</v>
       </c>
       <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.97099471092224121</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -6808,7 +7064,7 @@
       <c r="G83" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
@@ -6818,10 +7074,13 @@
         <v>15</v>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -6843,7 +7102,7 @@
       <c r="G84" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
@@ -6855,8 +7114,11 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -6878,7 +7140,7 @@
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
@@ -6888,10 +7150,13 @@
         <v>15</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.9999997615814209</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>248</v>
       </c>
@@ -6913,7 +7178,7 @@
       <c r="G86" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
@@ -6923,10 +7188,13 @@
         <v>15</v>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -6948,7 +7216,7 @@
       <c r="G87" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
@@ -6958,10 +7226,13 @@
         <v>15</v>
       </c>
       <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -6983,7 +7254,7 @@
       <c r="G88" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
@@ -6995,8 +7266,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -7018,7 +7292,7 @@
       <c r="G89" t="s">
         <v>257</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89">
         <v>0.7</v>
       </c>
       <c r="I89">
@@ -7028,10 +7302,13 @@
         <v>181</v>
       </c>
       <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>258</v>
       </c>
@@ -7053,7 +7330,7 @@
       <c r="G90" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
@@ -7063,10 +7340,13 @@
         <v>15</v>
       </c>
       <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -7088,7 +7368,7 @@
       <c r="G91" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
@@ -7098,10 +7378,13 @@
         <v>15</v>
       </c>
       <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>262</v>
       </c>
@@ -7123,7 +7406,7 @@
       <c r="G92" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
@@ -7133,10 +7416,13 @@
         <v>15</v>
       </c>
       <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>258</v>
       </c>
@@ -7158,7 +7444,7 @@
       <c r="G93" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
@@ -7168,10 +7454,13 @@
         <v>15</v>
       </c>
       <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>264</v>
       </c>
@@ -7193,7 +7482,7 @@
       <c r="G94" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
@@ -7203,10 +7492,13 @@
         <v>15</v>
       </c>
       <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -7228,7 +7520,7 @@
       <c r="G95" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
@@ -7240,8 +7532,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -7263,7 +7558,7 @@
       <c r="G96" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
@@ -7273,10 +7568,13 @@
         <v>15</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>270</v>
       </c>
@@ -7298,7 +7596,7 @@
       <c r="G97" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
@@ -7310,8 +7608,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -7333,7 +7634,7 @@
       <c r="G98" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
@@ -7343,10 +7644,13 @@
         <v>15</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -7368,7 +7672,7 @@
       <c r="G99" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
@@ -7378,10 +7682,13 @@
         <v>15</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>274</v>
       </c>
@@ -7403,7 +7710,7 @@
       <c r="G100" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
@@ -7413,10 +7720,13 @@
         <v>15</v>
       </c>
       <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>276</v>
       </c>
@@ -7438,7 +7748,7 @@
       <c r="G101" t="s">
         <v>14</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
@@ -7450,8 +7760,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>278</v>
       </c>
@@ -7473,7 +7786,7 @@
       <c r="G102" t="s">
         <v>14</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
@@ -7485,8 +7798,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>280</v>
       </c>
@@ -7508,7 +7824,7 @@
       <c r="G103" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
@@ -7520,8 +7836,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -7543,7 +7862,7 @@
       <c r="G104" t="s">
         <v>285</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
@@ -7553,10 +7872,13 @@
         <v>286</v>
       </c>
       <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99949663877487183</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -7578,7 +7900,7 @@
       <c r="G105" t="s">
         <v>14</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
@@ -7590,8 +7912,11 @@
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>289</v>
       </c>
@@ -7613,7 +7938,7 @@
       <c r="G106" t="s">
         <v>292</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106">
         <v>0.68</v>
       </c>
       <c r="I106">
@@ -7623,10 +7948,13 @@
         <v>293</v>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.91424447298049927</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -7648,7 +7976,7 @@
       <c r="G107" t="s">
         <v>297</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107">
         <v>0.05</v>
       </c>
       <c r="I107">
@@ -7658,10 +7986,13 @@
         <v>298</v>
       </c>
       <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.78162950277328491</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>299</v>
       </c>
@@ -7683,7 +8014,7 @@
       <c r="G108" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
@@ -7693,10 +8024,13 @@
         <v>15</v>
       </c>
       <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>301</v>
       </c>
@@ -7718,7 +8052,7 @@
       <c r="G109" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
@@ -7730,8 +8064,11 @@
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -7753,7 +8090,7 @@
       <c r="G110" t="s">
         <v>306</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110">
         <v>0.81</v>
       </c>
       <c r="I110">
@@ -7763,10 +8100,13 @@
         <v>307</v>
       </c>
       <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.80330049991607666</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>308</v>
       </c>
@@ -7788,7 +8128,7 @@
       <c r="G111" t="s">
         <v>311</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111">
         <v>0.82</v>
       </c>
       <c r="I111">
@@ -7798,10 +8138,13 @@
         <v>312</v>
       </c>
       <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98577374219894409</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>313</v>
       </c>
@@ -7823,7 +8166,7 @@
       <c r="G112" t="s">
         <v>14</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
@@ -7833,10 +8176,13 @@
         <v>15</v>
       </c>
       <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>308</v>
       </c>
@@ -7858,7 +8204,7 @@
       <c r="G113" t="s">
         <v>311</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113">
         <v>0.82</v>
       </c>
       <c r="I113">
@@ -7868,10 +8214,13 @@
         <v>312</v>
       </c>
       <c r="K113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98577374219894409</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>315</v>
       </c>
@@ -7893,7 +8242,7 @@
       <c r="G114" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
@@ -7903,10 +8252,13 @@
         <v>15</v>
       </c>
       <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>317</v>
       </c>
@@ -7928,7 +8280,7 @@
       <c r="G115" t="s">
         <v>14</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
@@ -7940,8 +8292,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>319</v>
       </c>
@@ -7963,7 +8318,7 @@
       <c r="G116" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
@@ -7973,10 +8328,13 @@
         <v>15</v>
       </c>
       <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>321</v>
       </c>
@@ -7998,7 +8356,7 @@
       <c r="G117" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
@@ -8010,8 +8368,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -8033,7 +8394,7 @@
       <c r="G118" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
@@ -8043,10 +8404,13 @@
         <v>15</v>
       </c>
       <c r="K118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>325</v>
       </c>
@@ -8068,7 +8432,7 @@
       <c r="G119" t="s">
         <v>328</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119">
         <v>0.46</v>
       </c>
       <c r="I119">
@@ -8078,10 +8442,13 @@
         <v>329</v>
       </c>
       <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.96847188472747803</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>330</v>
       </c>
@@ -8103,7 +8470,7 @@
       <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
@@ -8113,10 +8480,13 @@
         <v>15</v>
       </c>
       <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -8138,7 +8508,7 @@
       <c r="G121" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
@@ -8148,10 +8518,13 @@
         <v>15</v>
       </c>
       <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>333</v>
       </c>
@@ -8173,7 +8546,7 @@
       <c r="G122" t="s">
         <v>336</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122">
         <v>0.93</v>
       </c>
       <c r="I122">
@@ -8183,10 +8556,13 @@
         <v>337</v>
       </c>
       <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99568814039230347</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>338</v>
       </c>
@@ -8208,7 +8584,7 @@
       <c r="G123" t="s">
         <v>341</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
@@ -8220,8 +8596,11 @@
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>343</v>
       </c>
@@ -8243,7 +8622,7 @@
       <c r="G124" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
@@ -8253,10 +8632,13 @@
         <v>15</v>
       </c>
       <c r="K124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>345</v>
       </c>
@@ -8278,7 +8660,7 @@
       <c r="G125" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
@@ -8290,8 +8672,11 @@
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -8313,7 +8698,7 @@
       <c r="G126" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
@@ -8325,8 +8710,11 @@
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -8348,7 +8736,7 @@
       <c r="G127" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
@@ -8360,8 +8748,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>351</v>
       </c>
@@ -8383,7 +8774,7 @@
       <c r="G128" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
@@ -8393,10 +8784,13 @@
         <v>15</v>
       </c>
       <c r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>353</v>
       </c>
@@ -8418,7 +8812,7 @@
       <c r="G129" t="s">
         <v>356</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129">
         <v>0.71</v>
       </c>
       <c r="I129">
@@ -8428,13 +8822,16 @@
         <v>357</v>
       </c>
       <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129" t="s">
+        <v>0.96708929538726807</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>359</v>
       </c>
@@ -8456,7 +8853,7 @@
       <c r="G130" t="s">
         <v>336</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130">
         <v>0.93</v>
       </c>
       <c r="I130">
@@ -8466,10 +8863,13 @@
         <v>337</v>
       </c>
       <c r="K130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99568814039230347</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>360</v>
       </c>
@@ -8491,7 +8891,7 @@
       <c r="G131" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
@@ -8503,8 +8903,11 @@
       <c r="K131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>362</v>
       </c>
@@ -8526,7 +8929,7 @@
       <c r="G132" t="s">
         <v>365</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132">
         <v>0.18</v>
       </c>
       <c r="I132">
@@ -8536,13 +8939,16 @@
         <v>366</v>
       </c>
       <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
+        <v>0.92270004749298096</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>368</v>
       </c>
@@ -8564,7 +8970,7 @@
       <c r="G133" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
@@ -8574,10 +8980,13 @@
         <v>15</v>
       </c>
       <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>370</v>
       </c>
@@ -8599,7 +9008,7 @@
       <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
@@ -8611,8 +9020,11 @@
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -8634,7 +9046,7 @@
       <c r="G135" t="s">
         <v>14</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
@@ -8644,10 +9056,13 @@
         <v>15</v>
       </c>
       <c r="K135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>374</v>
       </c>
@@ -8669,7 +9084,7 @@
       <c r="G136" t="s">
         <v>377</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
@@ -8679,10 +9094,13 @@
         <v>378</v>
       </c>
       <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>379</v>
       </c>
@@ -8704,7 +9122,7 @@
       <c r="G137" t="s">
         <v>14</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
@@ -8716,8 +9134,11 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>381</v>
       </c>
@@ -8739,7 +9160,7 @@
       <c r="G138" t="s">
         <v>384</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
@@ -8749,10 +9170,13 @@
         <v>107</v>
       </c>
       <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>385</v>
       </c>
@@ -8774,7 +9198,7 @@
       <c r="G139" t="s">
         <v>14</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
@@ -8786,8 +9210,11 @@
       <c r="K139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>387</v>
       </c>
@@ -8809,7 +9236,7 @@
       <c r="G140" t="s">
         <v>390</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140">
         <v>0.44</v>
       </c>
       <c r="I140">
@@ -8819,10 +9246,13 @@
         <v>391</v>
       </c>
       <c r="K140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99461233615875244</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>392</v>
       </c>
@@ -8844,7 +9274,7 @@
       <c r="G141" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
@@ -8856,8 +9286,11 @@
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>394</v>
       </c>
@@ -8879,7 +9312,7 @@
       <c r="G142" t="s">
         <v>397</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142">
         <v>0.8</v>
       </c>
       <c r="I142">
@@ -8891,8 +9324,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>399</v>
       </c>
@@ -8914,7 +9350,7 @@
       <c r="G143" t="s">
         <v>227</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143">
         <v>0.9</v>
       </c>
       <c r="I143">
@@ -8924,10 +9360,13 @@
         <v>402</v>
       </c>
       <c r="K143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.988517165184021</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>403</v>
       </c>
@@ -8949,7 +9388,7 @@
       <c r="G144" t="s">
         <v>406</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144">
         <v>0.81</v>
       </c>
       <c r="I144">
@@ -8959,10 +9398,13 @@
         <v>407</v>
       </c>
       <c r="K144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -8984,7 +9426,7 @@
       <c r="G145" t="s">
         <v>411</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145">
         <v>0.87</v>
       </c>
       <c r="I145">
@@ -8994,10 +9436,13 @@
         <v>85</v>
       </c>
       <c r="K145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.9872126579284668</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>412</v>
       </c>
@@ -9019,7 +9464,7 @@
       <c r="G146" t="s">
         <v>411</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146">
         <v>0.87</v>
       </c>
       <c r="I146">
@@ -9029,10 +9474,13 @@
         <v>85</v>
       </c>
       <c r="K146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.9872126579284668</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>413</v>
       </c>
@@ -9054,7 +9502,7 @@
       <c r="G147" t="s">
         <v>416</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147">
         <v>0.88</v>
       </c>
       <c r="I147">
@@ -9064,10 +9512,13 @@
         <v>417</v>
       </c>
       <c r="K147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.996390700340271</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -9089,7 +9540,7 @@
       <c r="G148" t="s">
         <v>14</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
@@ -9099,10 +9550,13 @@
         <v>15</v>
       </c>
       <c r="K148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>420</v>
       </c>
@@ -9124,7 +9578,7 @@
       <c r="G149" t="s">
         <v>423</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149">
         <v>0.89</v>
       </c>
       <c r="I149">
@@ -9134,10 +9588,13 @@
         <v>424</v>
       </c>
       <c r="K149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98546892404556274</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>425</v>
       </c>
@@ -9159,7 +9616,7 @@
       <c r="G150" t="s">
         <v>428</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150">
         <v>0.93</v>
       </c>
       <c r="I150">
@@ -9169,10 +9626,13 @@
         <v>429</v>
       </c>
       <c r="K150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98376119136810303</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -9194,7 +9654,7 @@
       <c r="G151" t="s">
         <v>433</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151">
         <v>0.56999999999999995</v>
       </c>
       <c r="I151">
@@ -9204,10 +9664,13 @@
         <v>391</v>
       </c>
       <c r="K151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.98928213119506836</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -9229,7 +9692,7 @@
       <c r="G152" t="s">
         <v>437</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152">
         <v>0.62</v>
       </c>
       <c r="I152">
@@ -9239,10 +9702,13 @@
         <v>438</v>
       </c>
       <c r="K152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99080759286880493</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>439</v>
       </c>
@@ -9264,7 +9730,7 @@
       <c r="G153" t="s">
         <v>442</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
@@ -9276,8 +9742,11 @@
       <c r="K153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>444</v>
       </c>
@@ -9299,7 +9768,7 @@
       <c r="G154" t="s">
         <v>14</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
@@ -9309,10 +9778,13 @@
         <v>15</v>
       </c>
       <c r="K154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>446</v>
       </c>
@@ -9334,7 +9806,7 @@
       <c r="G155" t="s">
         <v>14</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
@@ -9346,8 +9818,11 @@
       <c r="K155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>448</v>
       </c>
@@ -9369,7 +9844,7 @@
       <c r="G156" t="s">
         <v>14</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
@@ -9379,10 +9854,13 @@
         <v>15</v>
       </c>
       <c r="K156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>450</v>
       </c>
@@ -9404,7 +9882,7 @@
       <c r="G157" t="s">
         <v>453</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
@@ -9416,8 +9894,11 @@
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>455</v>
       </c>
@@ -9439,7 +9920,7 @@
       <c r="G158" t="s">
         <v>14</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
@@ -9451,8 +9932,11 @@
       <c r="K158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>457</v>
       </c>
@@ -9474,7 +9958,7 @@
       <c r="G159" t="s">
         <v>460</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159">
         <v>0.94</v>
       </c>
       <c r="I159">
@@ -9486,8 +9970,11 @@
       <c r="K159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>462</v>
       </c>
@@ -9509,7 +9996,7 @@
       <c r="G160" t="s">
         <v>465</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160">
         <v>0.69</v>
       </c>
       <c r="I160">
@@ -9519,10 +10006,13 @@
         <v>466</v>
       </c>
       <c r="K160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98950463533401489</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>467</v>
       </c>
@@ -9544,7 +10034,7 @@
       <c r="G161" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
@@ -9554,10 +10044,13 @@
         <v>15</v>
       </c>
       <c r="K161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>469</v>
       </c>
@@ -9579,7 +10072,7 @@
       <c r="G162" t="s">
         <v>14</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
@@ -9589,10 +10082,13 @@
         <v>15</v>
       </c>
       <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>471</v>
       </c>
@@ -9614,7 +10110,7 @@
       <c r="G163" t="s">
         <v>14</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
@@ -9624,10 +10120,13 @@
         <v>15</v>
       </c>
       <c r="K163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>473</v>
       </c>
@@ -9649,7 +10148,7 @@
       <c r="G164" t="s">
         <v>14</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
@@ -9659,10 +10158,13 @@
         <v>15</v>
       </c>
       <c r="K164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>475</v>
       </c>
@@ -9684,7 +10186,7 @@
       <c r="G165" t="s">
         <v>14</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
@@ -9696,8 +10198,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>477</v>
       </c>
@@ -9719,7 +10224,7 @@
       <c r="G166" t="s">
         <v>14</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
@@ -9729,10 +10234,13 @@
         <v>15</v>
       </c>
       <c r="K166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>479</v>
       </c>
@@ -9754,7 +10262,7 @@
       <c r="G167" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
@@ -9764,10 +10272,13 @@
         <v>15</v>
       </c>
       <c r="K167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>481</v>
       </c>
@@ -9789,7 +10300,7 @@
       <c r="G168" t="s">
         <v>14</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
@@ -9801,8 +10312,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>483</v>
       </c>
@@ -9824,7 +10338,7 @@
       <c r="G169" t="s">
         <v>14</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
@@ -9836,8 +10350,11 @@
       <c r="K169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>485</v>
       </c>
@@ -9859,7 +10376,7 @@
       <c r="G170" t="s">
         <v>14</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
@@ -9871,8 +10388,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -9894,7 +10414,7 @@
       <c r="G171" t="s">
         <v>14</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
@@ -9906,8 +10426,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>489</v>
       </c>
@@ -9929,7 +10452,7 @@
       <c r="G172" t="s">
         <v>14</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
@@ -9939,10 +10462,13 @@
         <v>15</v>
       </c>
       <c r="K172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>490</v>
       </c>
@@ -9964,7 +10490,7 @@
       <c r="G173" t="s">
         <v>14</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
@@ -9976,8 +10502,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>492</v>
       </c>
@@ -9999,7 +10528,7 @@
       <c r="G174" t="s">
         <v>14</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
@@ -10009,10 +10538,13 @@
         <v>15</v>
       </c>
       <c r="K174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>494</v>
       </c>
@@ -10034,7 +10566,7 @@
       <c r="G175" t="s">
         <v>497</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175">
         <v>0.98</v>
       </c>
       <c r="I175">
@@ -10044,10 +10576,13 @@
         <v>498</v>
       </c>
       <c r="K175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99687421321868896</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -10069,7 +10604,7 @@
       <c r="G176" t="s">
         <v>502</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176">
         <v>0.63</v>
       </c>
       <c r="I176">
@@ -10079,13 +10614,16 @@
         <v>503</v>
       </c>
       <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
+        <v>0.95762306451797485</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>505</v>
       </c>
@@ -10107,7 +10645,7 @@
       <c r="G177" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
@@ -10117,10 +10655,13 @@
         <v>15</v>
       </c>
       <c r="K177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>506</v>
       </c>
@@ -10142,7 +10683,7 @@
       <c r="G178" t="s">
         <v>509</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
@@ -10154,8 +10695,11 @@
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -10177,7 +10721,7 @@
       <c r="G179" t="s">
         <v>14</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
@@ -10187,10 +10731,13 @@
         <v>15</v>
       </c>
       <c r="K179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -10212,7 +10759,7 @@
       <c r="G180" t="s">
         <v>509</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
@@ -10224,8 +10771,11 @@
       <c r="K180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>514</v>
       </c>
@@ -10247,7 +10797,7 @@
       <c r="G181" t="s">
         <v>14</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
@@ -10257,10 +10807,13 @@
         <v>15</v>
       </c>
       <c r="K181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>516</v>
       </c>
@@ -10282,7 +10835,7 @@
       <c r="G182" t="s">
         <v>519</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
@@ -10292,13 +10845,16 @@
         <v>520</v>
       </c>
       <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" t="s">
+        <v>0.83402848243713379</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>522</v>
       </c>
@@ -10320,7 +10876,7 @@
       <c r="G183" t="s">
         <v>14</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
@@ -10332,8 +10888,11 @@
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -10355,7 +10914,7 @@
       <c r="G184" t="s">
         <v>14</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
@@ -10367,8 +10926,11 @@
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>526</v>
       </c>
@@ -10390,7 +10952,7 @@
       <c r="G185" t="s">
         <v>14</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185">
         <v>1</v>
       </c>
       <c r="I185">
@@ -10400,10 +10962,13 @@
         <v>15</v>
       </c>
       <c r="K185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>528</v>
       </c>
@@ -10425,7 +10990,7 @@
       <c r="G186" t="s">
         <v>531</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186">
         <v>0.59</v>
       </c>
       <c r="I186">
@@ -10435,13 +11000,16 @@
         <v>532</v>
       </c>
       <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186" t="s">
+        <v>0.97864019870758057</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>534</v>
       </c>
@@ -10463,7 +11031,7 @@
       <c r="G187" t="s">
         <v>14</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
@@ -10475,8 +11043,11 @@
       <c r="K187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>536</v>
       </c>
@@ -10498,7 +11069,7 @@
       <c r="G188" t="s">
         <v>14</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
@@ -10508,10 +11079,13 @@
         <v>15</v>
       </c>
       <c r="K188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>538</v>
       </c>
@@ -10533,7 +11107,7 @@
       <c r="G189" t="s">
         <v>541</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189">
         <v>0.73</v>
       </c>
       <c r="I189">
@@ -10543,13 +11117,16 @@
         <v>542</v>
       </c>
       <c r="K189">
-        <v>1</v>
-      </c>
-      <c r="L189" t="s">
+        <v>0.99774420261383057</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>544</v>
       </c>
@@ -10571,7 +11148,7 @@
       <c r="G190" t="s">
         <v>14</v>
       </c>
-      <c r="H190" s="5">
+      <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
@@ -10581,10 +11158,13 @@
         <v>15</v>
       </c>
       <c r="K190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>546</v>
       </c>
@@ -10606,7 +11186,7 @@
       <c r="G191" t="s">
         <v>14</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
@@ -10618,8 +11198,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>548</v>
       </c>
@@ -10641,7 +11224,7 @@
       <c r="G192" t="s">
         <v>14</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
@@ -10653,8 +11236,11 @@
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>550</v>
       </c>
@@ -10676,7 +11262,7 @@
       <c r="G193" t="s">
         <v>553</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193">
         <v>0.54</v>
       </c>
       <c r="I193">
@@ -10686,13 +11272,16 @@
         <v>554</v>
       </c>
       <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" t="s">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>556</v>
       </c>
@@ -10714,7 +11303,7 @@
       <c r="G194" t="s">
         <v>14</v>
       </c>
-      <c r="H194" s="5">
+      <c r="H194">
         <v>1</v>
       </c>
       <c r="I194">
@@ -10724,10 +11313,13 @@
         <v>15</v>
       </c>
       <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>558</v>
       </c>
@@ -10749,7 +11341,7 @@
       <c r="G195" t="s">
         <v>14</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
@@ -10759,10 +11351,13 @@
         <v>15</v>
       </c>
       <c r="K195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>560</v>
       </c>
@@ -10784,7 +11379,7 @@
       <c r="G196" t="s">
         <v>563</v>
       </c>
-      <c r="H196" s="5">
+      <c r="H196">
         <v>0.5</v>
       </c>
       <c r="I196">
@@ -10794,13 +11389,16 @@
         <v>564</v>
       </c>
       <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196" t="s">
+        <v>0.96000528335571289</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>566</v>
       </c>
@@ -10822,7 +11420,7 @@
       <c r="G197" t="s">
         <v>569</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
@@ -10832,10 +11430,13 @@
         <v>570</v>
       </c>
       <c r="K197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>571</v>
       </c>
@@ -10857,7 +11458,7 @@
       <c r="G198" t="s">
         <v>14</v>
       </c>
-      <c r="H198" s="5">
+      <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
@@ -10867,10 +11468,13 @@
         <v>15</v>
       </c>
       <c r="K198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>573</v>
       </c>
@@ -10892,7 +11496,7 @@
       <c r="G199" t="s">
         <v>576</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H199">
         <v>0.04</v>
       </c>
       <c r="I199">
@@ -10902,13 +11506,16 @@
         <v>577</v>
       </c>
       <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
+        <v>0.76123124361038208</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>579</v>
       </c>
@@ -10930,7 +11537,7 @@
       <c r="G200" t="s">
         <v>582</v>
       </c>
-      <c r="H200" s="5">
+      <c r="H200">
         <v>0.43</v>
       </c>
       <c r="I200">
@@ -10940,13 +11547,16 @@
         <v>583</v>
       </c>
       <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
+        <v>0.85167944431304932</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>584</v>
       </c>
@@ -10968,7 +11578,7 @@
       <c r="G201" t="s">
         <v>587</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201">
         <v>0.12</v>
       </c>
       <c r="I201">
@@ -10978,13 +11588,16 @@
         <v>588</v>
       </c>
       <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
+        <v>0.82720565795898438</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>589</v>
       </c>
@@ -11006,7 +11619,7 @@
       <c r="G202" t="s">
         <v>592</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202">
         <v>0.16</v>
       </c>
       <c r="I202">
@@ -11016,13 +11629,16 @@
         <v>593</v>
       </c>
       <c r="K202">
-        <v>1</v>
-      </c>
-      <c r="L202" t="s">
+        <v>0.86886799335479736</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>595</v>
       </c>
@@ -11044,7 +11660,7 @@
       <c r="G203" t="s">
         <v>598</v>
       </c>
-      <c r="H203" s="5">
+      <c r="H203">
         <v>0.15</v>
       </c>
       <c r="I203">
@@ -11054,13 +11670,16 @@
         <v>599</v>
       </c>
       <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
+        <v>0.77962160110473633</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>600</v>
       </c>
@@ -11082,7 +11701,7 @@
       <c r="G204" t="s">
         <v>603</v>
       </c>
-      <c r="H204" s="5">
+      <c r="H204">
         <v>0.56999999999999995</v>
       </c>
       <c r="I204">
@@ -11092,10 +11711,13 @@
         <v>97</v>
       </c>
       <c r="K204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99526321887969971</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>604</v>
       </c>
@@ -11117,7 +11739,7 @@
       <c r="G205" t="s">
         <v>607</v>
       </c>
-      <c r="H205" s="5">
+      <c r="H205">
         <v>0.17</v>
       </c>
       <c r="I205">
@@ -11127,13 +11749,16 @@
         <v>608</v>
       </c>
       <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
+        <v>0.92976069450378418</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>610</v>
       </c>
@@ -11155,7 +11780,7 @@
       <c r="G206" t="s">
         <v>613</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H206">
         <v>0.95</v>
       </c>
       <c r="I206">
@@ -11165,10 +11790,13 @@
         <v>614</v>
       </c>
       <c r="K206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99914586544036865</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>615</v>
       </c>
@@ -11190,7 +11818,7 @@
       <c r="G207" t="s">
         <v>613</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H207">
         <v>0.95</v>
       </c>
       <c r="I207">
@@ -11200,10 +11828,13 @@
         <v>614</v>
       </c>
       <c r="K207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99914586544036865</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>616</v>
       </c>
@@ -11225,7 +11856,7 @@
       <c r="G208" t="s">
         <v>619</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
@@ -11237,8 +11868,11 @@
       <c r="K208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>621</v>
       </c>
@@ -11260,7 +11894,7 @@
       <c r="G209" t="s">
         <v>14</v>
       </c>
-      <c r="H209" s="5">
+      <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
@@ -11270,10 +11904,13 @@
         <v>15</v>
       </c>
       <c r="K209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>623</v>
       </c>
@@ -11295,7 +11932,7 @@
       <c r="G210" t="s">
         <v>626</v>
       </c>
-      <c r="H210" s="5">
+      <c r="H210">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I210">
@@ -11305,13 +11942,16 @@
         <v>627</v>
       </c>
       <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210" t="s">
+        <v>0.65769529342651367</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>629</v>
       </c>
@@ -11333,7 +11973,7 @@
       <c r="G211" t="s">
         <v>14</v>
       </c>
-      <c r="H211" s="5">
+      <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
@@ -11343,10 +11983,13 @@
         <v>15</v>
       </c>
       <c r="K211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>631</v>
       </c>
@@ -11368,7 +12011,7 @@
       <c r="G212" t="s">
         <v>14</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
@@ -11378,10 +12021,13 @@
         <v>15</v>
       </c>
       <c r="K212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>633</v>
       </c>
@@ -11403,7 +12049,7 @@
       <c r="G213" t="s">
         <v>636</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213">
         <v>0.96</v>
       </c>
       <c r="I213">
@@ -11413,13 +12059,16 @@
         <v>97</v>
       </c>
       <c r="K213">
-        <v>0</v>
-      </c>
-      <c r="L213" t="s">
+        <v>0.94890213012695313</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>638</v>
       </c>
@@ -11441,7 +12090,7 @@
       <c r="G214" t="s">
         <v>14</v>
       </c>
-      <c r="H214" s="5">
+      <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
@@ -11453,8 +12102,11 @@
       <c r="K214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>640</v>
       </c>
@@ -11476,7 +12128,7 @@
       <c r="G215" t="s">
         <v>14</v>
       </c>
-      <c r="H215" s="5">
+      <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
@@ -11488,8 +12140,11 @@
       <c r="K215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>642</v>
       </c>
@@ -11511,7 +12166,7 @@
       <c r="G216" t="s">
         <v>14</v>
       </c>
-      <c r="H216" s="5">
+      <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
@@ -11523,8 +12178,11 @@
       <c r="K216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -11546,7 +12204,7 @@
       <c r="G217" t="s">
         <v>14</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
@@ -11558,8 +12216,11 @@
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>646</v>
       </c>
@@ -11581,7 +12242,7 @@
       <c r="G218" t="s">
         <v>14</v>
       </c>
-      <c r="H218" s="5">
+      <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
@@ -11591,10 +12252,13 @@
         <v>15</v>
       </c>
       <c r="K218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>648</v>
       </c>
@@ -11616,7 +12280,7 @@
       <c r="G219" t="s">
         <v>14</v>
       </c>
-      <c r="H219" s="5">
+      <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
@@ -11628,8 +12292,11 @@
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>650</v>
       </c>
@@ -11651,7 +12318,7 @@
       <c r="G220" t="s">
         <v>14</v>
       </c>
-      <c r="H220" s="5">
+      <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
@@ -11661,10 +12328,13 @@
         <v>15</v>
       </c>
       <c r="K220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>652</v>
       </c>
@@ -11686,7 +12356,7 @@
       <c r="G221" t="s">
         <v>14</v>
       </c>
-      <c r="H221" s="5">
+      <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
@@ -11696,10 +12366,13 @@
         <v>15</v>
       </c>
       <c r="K221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>654</v>
       </c>
@@ -11721,7 +12394,7 @@
       <c r="G222" t="s">
         <v>14</v>
       </c>
-      <c r="H222" s="5">
+      <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
@@ -11731,10 +12404,13 @@
         <v>15</v>
       </c>
       <c r="K222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>656</v>
       </c>
@@ -11756,7 +12432,7 @@
       <c r="G223" t="s">
         <v>14</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
@@ -11768,8 +12444,11 @@
       <c r="K223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>658</v>
       </c>
@@ -11791,7 +12470,7 @@
       <c r="G224" t="s">
         <v>661</v>
       </c>
-      <c r="H224" s="5">
+      <c r="H224">
         <v>0.26</v>
       </c>
       <c r="I224">
@@ -11801,13 +12480,16 @@
         <v>662</v>
       </c>
       <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
+        <v>0.95559316873550415</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>664</v>
       </c>
@@ -11829,7 +12511,7 @@
       <c r="G225" t="s">
         <v>667</v>
       </c>
-      <c r="H225" s="5">
+      <c r="H225">
         <v>0.46</v>
       </c>
       <c r="I225">
@@ -11839,10 +12521,13 @@
         <v>668</v>
       </c>
       <c r="K225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.91306805610656738</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>669</v>
       </c>
@@ -11864,7 +12549,7 @@
       <c r="G226" t="s">
         <v>672</v>
       </c>
-      <c r="H226" s="5">
+      <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
@@ -11874,10 +12559,13 @@
         <v>673</v>
       </c>
       <c r="K226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97975641489028931</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>674</v>
       </c>
@@ -11899,7 +12587,7 @@
       <c r="G227" t="s">
         <v>677</v>
       </c>
-      <c r="H227" s="5">
+      <c r="H227">
         <v>0.43</v>
       </c>
       <c r="I227">
@@ -11909,13 +12597,16 @@
         <v>678</v>
       </c>
       <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
+        <v>0.93539446592330933</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>680</v>
       </c>
@@ -11937,7 +12628,7 @@
       <c r="G228" t="s">
         <v>683</v>
       </c>
-      <c r="H228" s="5">
+      <c r="H228">
         <v>0.34</v>
       </c>
       <c r="I228">
@@ -11947,13 +12638,16 @@
         <v>378</v>
       </c>
       <c r="K228">
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
+        <v>0.97589397430419922</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>685</v>
       </c>
@@ -11975,7 +12669,7 @@
       <c r="G229" t="s">
         <v>688</v>
       </c>
-      <c r="H229" s="5">
+      <c r="H229">
         <v>0</v>
       </c>
       <c r="I229">
@@ -11985,13 +12679,16 @@
         <v>689</v>
       </c>
       <c r="K229">
-        <v>0</v>
-      </c>
-      <c r="L229" t="s">
+        <v>0.65579426288604736</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>690</v>
       </c>
@@ -12013,7 +12710,7 @@
       <c r="G230" t="s">
         <v>693</v>
       </c>
-      <c r="H230" s="5">
+      <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
@@ -12023,13 +12720,16 @@
         <v>694</v>
       </c>
       <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
+        <v>0.94465839862823486</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>696</v>
       </c>
@@ -12051,7 +12751,7 @@
       <c r="G231" t="s">
         <v>699</v>
       </c>
-      <c r="H231" s="5">
+      <c r="H231">
         <v>0.41</v>
       </c>
       <c r="I231">
@@ -12061,10 +12761,13 @@
         <v>700</v>
       </c>
       <c r="K231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.77074933052062988</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>701</v>
       </c>
@@ -12086,7 +12789,7 @@
       <c r="G232" t="s">
         <v>704</v>
       </c>
-      <c r="H232" s="5">
+      <c r="H232">
         <v>0.42</v>
       </c>
       <c r="I232">
@@ -12096,10 +12799,13 @@
         <v>705</v>
       </c>
       <c r="K232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.91295886039733887</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>706</v>
       </c>
@@ -12121,7 +12827,7 @@
       <c r="G233" t="s">
         <v>709</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233">
         <v>0.36</v>
       </c>
       <c r="I233">
@@ -12131,13 +12837,16 @@
         <v>710</v>
       </c>
       <c r="K233">
-        <v>1</v>
-      </c>
-      <c r="L233" t="s">
+        <v>0.88636589050292969</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>712</v>
       </c>
@@ -12159,7 +12868,7 @@
       <c r="G234" t="s">
         <v>715</v>
       </c>
-      <c r="H234" s="5">
+      <c r="H234">
         <v>0.52</v>
       </c>
       <c r="I234">
@@ -12169,13 +12878,16 @@
         <v>716</v>
       </c>
       <c r="K234">
-        <v>1</v>
-      </c>
-      <c r="L234" t="s">
+        <v>0.96310615539550781</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>718</v>
       </c>
@@ -12197,7 +12909,7 @@
       <c r="G235" t="s">
         <v>721</v>
       </c>
-      <c r="H235" s="5">
+      <c r="H235">
         <v>0.02</v>
       </c>
       <c r="I235">
@@ -12207,13 +12919,16 @@
         <v>722</v>
       </c>
       <c r="K235">
-        <v>0</v>
-      </c>
-      <c r="L235" t="s">
+        <v>0.69951868057250977</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>724</v>
       </c>
@@ -12235,7 +12950,7 @@
       <c r="G236" t="s">
         <v>727</v>
       </c>
-      <c r="H236" s="5">
+      <c r="H236">
         <v>0.16</v>
       </c>
       <c r="I236">
@@ -12245,10 +12960,13 @@
         <v>728</v>
       </c>
       <c r="K236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.96480894088745117</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>729</v>
       </c>
@@ -12270,7 +12988,7 @@
       <c r="G237" t="s">
         <v>732</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237">
         <v>0.31</v>
       </c>
       <c r="I237">
@@ -12280,10 +12998,13 @@
         <v>733</v>
       </c>
       <c r="K237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.95341694355010986</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>734</v>
       </c>
@@ -12305,7 +13026,7 @@
       <c r="G238" t="s">
         <v>737</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238">
         <v>0.36</v>
       </c>
       <c r="I238">
@@ -12315,10 +13036,13 @@
         <v>738</v>
       </c>
       <c r="K238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9103894829750061</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>739</v>
       </c>
@@ -12340,7 +13064,7 @@
       <c r="G239" t="s">
         <v>742</v>
       </c>
-      <c r="H239" s="5">
+      <c r="H239">
         <v>0.18</v>
       </c>
       <c r="I239">
@@ -12350,10 +13074,13 @@
         <v>743</v>
       </c>
       <c r="K239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.91129577159881592</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>744</v>
       </c>
@@ -12375,7 +13102,7 @@
       <c r="G240" t="s">
         <v>747</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240">
         <v>0.39</v>
       </c>
       <c r="I240">
@@ -12385,13 +13112,16 @@
         <v>748</v>
       </c>
       <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240" t="s">
+        <v>0.80166471004486084</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>749</v>
       </c>
@@ -12413,7 +13143,7 @@
       <c r="G241" t="s">
         <v>752</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
@@ -12423,13 +13153,16 @@
         <v>753</v>
       </c>
       <c r="K241">
-        <v>0</v>
-      </c>
-      <c r="L241" t="s">
+        <v>0.61974596977233887</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>755</v>
       </c>
@@ -12451,7 +13184,7 @@
       <c r="G242" t="s">
         <v>758</v>
       </c>
-      <c r="H242" s="5">
+      <c r="H242">
         <v>0.28999999999999998</v>
       </c>
       <c r="I242">
@@ -12461,13 +13194,16 @@
         <v>759</v>
       </c>
       <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="L242" t="s">
+        <v>0.93458414077758789</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>761</v>
       </c>
@@ -12489,7 +13225,7 @@
       <c r="G243" t="s">
         <v>764</v>
       </c>
-      <c r="H243" s="5">
+      <c r="H243">
         <v>0.48</v>
       </c>
       <c r="I243">
@@ -12499,10 +13235,13 @@
         <v>765</v>
       </c>
       <c r="K243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9267699122428894</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>766</v>
       </c>
@@ -12524,7 +13263,7 @@
       <c r="G244" t="s">
         <v>769</v>
       </c>
-      <c r="H244" s="5">
+      <c r="H244">
         <v>0.44</v>
       </c>
       <c r="I244">
@@ -12534,13 +13273,16 @@
         <v>770</v>
       </c>
       <c r="K244">
-        <v>0</v>
-      </c>
-      <c r="L244" t="s">
+        <v>0.97474122047424316</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>772</v>
       </c>
@@ -12562,7 +13304,7 @@
       <c r="G245" t="s">
         <v>775</v>
       </c>
-      <c r="H245" s="5">
+      <c r="H245">
         <v>0.57999999999999996</v>
       </c>
       <c r="I245">
@@ -12572,13 +13314,16 @@
         <v>776</v>
       </c>
       <c r="K245">
-        <v>0</v>
-      </c>
-      <c r="L245" t="s">
+        <v>0.94217711687088013</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>778</v>
       </c>
@@ -12600,7 +13345,7 @@
       <c r="G246" t="s">
         <v>781</v>
       </c>
-      <c r="H246" s="5">
+      <c r="H246">
         <v>0.11</v>
       </c>
       <c r="I246">
@@ -12610,13 +13355,16 @@
         <v>782</v>
       </c>
       <c r="K246">
-        <v>0</v>
-      </c>
-      <c r="L246" t="s">
+        <v>0.97099566459655762</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>784</v>
       </c>
@@ -12638,7 +13386,7 @@
       <c r="G247" t="s">
         <v>787</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247">
         <v>0.24</v>
       </c>
       <c r="I247">
@@ -12648,13 +13396,16 @@
         <v>213</v>
       </c>
       <c r="K247">
-        <v>0</v>
-      </c>
-      <c r="L247" t="s">
+        <v>0.79936736822128296</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>789</v>
       </c>
@@ -12676,7 +13427,7 @@
       <c r="G248" t="s">
         <v>792</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248">
         <v>0.31</v>
       </c>
       <c r="I248">
@@ -12686,13 +13437,16 @@
         <v>793</v>
       </c>
       <c r="K248">
-        <v>1</v>
-      </c>
-      <c r="L248" t="s">
+        <v>0.83140718936920166</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>795</v>
       </c>
@@ -12714,7 +13468,7 @@
       <c r="G249" t="s">
         <v>798</v>
       </c>
-      <c r="H249" s="5">
+      <c r="H249">
         <v>0.56999999999999995</v>
       </c>
       <c r="I249">
@@ -12724,13 +13478,16 @@
         <v>799</v>
       </c>
       <c r="K249">
-        <v>0</v>
-      </c>
-      <c r="L249" t="s">
+        <v>0.9489821195602417</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>801</v>
       </c>
@@ -12752,7 +13509,7 @@
       <c r="G250" t="s">
         <v>804</v>
       </c>
-      <c r="H250" s="5">
+      <c r="H250">
         <v>0.38</v>
       </c>
       <c r="I250">
@@ -12762,10 +13519,13 @@
         <v>805</v>
       </c>
       <c r="K250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9398266077041626</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>806</v>
       </c>
@@ -12787,7 +13547,7 @@
       <c r="G251" t="s">
         <v>809</v>
       </c>
-      <c r="H251" s="5">
+      <c r="H251">
         <v>0.42</v>
       </c>
       <c r="I251">
@@ -12797,13 +13557,16 @@
         <v>810</v>
       </c>
       <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251" t="s">
+        <v>0.91488993167877197</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>812</v>
       </c>
@@ -12825,7 +13588,7 @@
       <c r="G252" t="s">
         <v>815</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252">
         <v>0.5</v>
       </c>
       <c r="I252">
@@ -12835,10 +13598,13 @@
         <v>816</v>
       </c>
       <c r="K252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.8542366623878479</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>817</v>
       </c>
@@ -12860,7 +13626,7 @@
       <c r="G253" t="s">
         <v>820</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253">
         <v>0</v>
       </c>
       <c r="I253">
@@ -12870,13 +13636,16 @@
         <v>821</v>
       </c>
       <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253" t="s">
+        <v>0.78215289115905762</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>823</v>
       </c>
@@ -12898,7 +13667,7 @@
       <c r="G254" t="s">
         <v>826</v>
       </c>
-      <c r="H254" s="5">
+      <c r="H254">
         <v>0</v>
       </c>
       <c r="I254">
@@ -12908,13 +13677,16 @@
         <v>827</v>
       </c>
       <c r="K254">
-        <v>1</v>
-      </c>
-      <c r="L254" t="s">
+        <v>0.67920857667922974</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>829</v>
       </c>
@@ -12936,7 +13708,7 @@
       <c r="G255" t="s">
         <v>832</v>
       </c>
-      <c r="H255" s="5">
+      <c r="H255">
         <v>0.67</v>
       </c>
       <c r="I255">
@@ -12946,10 +13718,13 @@
         <v>833</v>
       </c>
       <c r="K255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98105895519256592</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>834</v>
       </c>
@@ -12971,7 +13746,7 @@
       <c r="G256" t="s">
         <v>837</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256">
         <v>0.05</v>
       </c>
       <c r="I256">
@@ -12981,13 +13756,16 @@
         <v>838</v>
       </c>
       <c r="K256">
-        <v>0</v>
-      </c>
-      <c r="L256" t="s">
+        <v>0.78480732440948486</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>840</v>
       </c>
@@ -13009,7 +13787,7 @@
       <c r="G257" t="s">
         <v>843</v>
       </c>
-      <c r="H257" s="5">
+      <c r="H257">
         <v>0</v>
       </c>
       <c r="I257">
@@ -13019,13 +13797,16 @@
         <v>844</v>
       </c>
       <c r="K257">
-        <v>0</v>
-      </c>
-      <c r="L257" t="s">
+        <v>0.9606482982635498</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>846</v>
       </c>
@@ -13047,7 +13828,7 @@
       <c r="G258" t="s">
         <v>849</v>
       </c>
-      <c r="H258" s="5">
+      <c r="H258">
         <v>0.11</v>
       </c>
       <c r="I258">
@@ -13057,13 +13838,16 @@
         <v>850</v>
       </c>
       <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258" t="s">
+        <v>0.84128481149673462</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>852</v>
       </c>
@@ -13085,7 +13869,7 @@
       <c r="G259" t="s">
         <v>855</v>
       </c>
-      <c r="H259" s="5">
+      <c r="H259">
         <v>0.38</v>
       </c>
       <c r="I259">
@@ -13095,13 +13879,16 @@
         <v>856</v>
       </c>
       <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
+        <v>0.96049690246582031</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>858</v>
       </c>
@@ -13123,7 +13910,7 @@
       <c r="G260" t="s">
         <v>861</v>
       </c>
-      <c r="H260" s="5">
+      <c r="H260">
         <v>0.63</v>
       </c>
       <c r="I260">
@@ -13133,10 +13920,13 @@
         <v>429</v>
       </c>
       <c r="K260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.95769840478897095</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>862</v>
       </c>
@@ -13158,7 +13948,7 @@
       <c r="G261" t="s">
         <v>865</v>
       </c>
-      <c r="H261" s="5">
+      <c r="H261">
         <v>0.47</v>
       </c>
       <c r="I261">
@@ -13168,13 +13958,16 @@
         <v>866</v>
       </c>
       <c r="K261">
-        <v>1</v>
-      </c>
-      <c r="L261" t="s">
+        <v>0.96432936191558838</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>868</v>
       </c>
@@ -13196,7 +13989,7 @@
       <c r="G262" t="s">
         <v>871</v>
       </c>
-      <c r="H262" s="5">
+      <c r="H262">
         <v>0.26</v>
       </c>
       <c r="I262">
@@ -13206,13 +13999,16 @@
         <v>872</v>
       </c>
       <c r="K262">
-        <v>1</v>
-      </c>
-      <c r="L262" t="s">
+        <v>0.96211445331573486</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>874</v>
       </c>
@@ -13234,7 +14030,7 @@
       <c r="G263" t="s">
         <v>877</v>
       </c>
-      <c r="H263" s="5">
+      <c r="H263">
         <v>0</v>
       </c>
       <c r="I263">
@@ -13244,10 +14040,13 @@
         <v>878</v>
       </c>
       <c r="K263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.90164399147033691</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>879</v>
       </c>
@@ -13269,7 +14068,7 @@
       <c r="G264" t="s">
         <v>882</v>
       </c>
-      <c r="H264" s="5">
+      <c r="H264">
         <v>0</v>
       </c>
       <c r="I264">
@@ -13279,13 +14078,16 @@
         <v>883</v>
       </c>
       <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="L264" t="s">
+        <v>0.74892467260360718</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>885</v>
       </c>
@@ -13307,7 +14109,7 @@
       <c r="G265" t="s">
         <v>888</v>
       </c>
-      <c r="H265" s="5">
+      <c r="H265">
         <v>0</v>
       </c>
       <c r="I265">
@@ -13317,13 +14119,16 @@
         <v>889</v>
       </c>
       <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+        <v>0.44304168224334722</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>891</v>
       </c>
@@ -13345,7 +14150,7 @@
       <c r="G266" t="s">
         <v>894</v>
       </c>
-      <c r="H266" s="5">
+      <c r="H266">
         <v>0.17</v>
       </c>
       <c r="I266">
@@ -13355,10 +14160,13 @@
         <v>895</v>
       </c>
       <c r="K266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.87897181510925293</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>896</v>
       </c>
@@ -13380,7 +14188,7 @@
       <c r="G267" t="s">
         <v>899</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267">
         <v>0.14000000000000001</v>
       </c>
       <c r="I267">
@@ -13390,13 +14198,16 @@
         <v>900</v>
       </c>
       <c r="K267">
-        <v>0</v>
-      </c>
-      <c r="L267" t="s">
+        <v>0.9608771800994873</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>902</v>
       </c>
@@ -13418,7 +14229,7 @@
       <c r="G268" t="s">
         <v>905</v>
       </c>
-      <c r="H268" s="5">
+      <c r="H268">
         <v>0</v>
       </c>
       <c r="I268">
@@ -13428,13 +14239,16 @@
         <v>906</v>
       </c>
       <c r="K268">
-        <v>0</v>
-      </c>
-      <c r="L268" t="s">
+        <v>0.75922524929046631</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>908</v>
       </c>
@@ -13456,7 +14270,7 @@
       <c r="G269" t="s">
         <v>911</v>
       </c>
-      <c r="H269" s="5">
+      <c r="H269">
         <v>0.76</v>
       </c>
       <c r="I269">
@@ -13466,13 +14280,16 @@
         <v>912</v>
       </c>
       <c r="K269">
-        <v>0</v>
-      </c>
-      <c r="L269" t="s">
+        <v>0.9574856162071228</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>914</v>
       </c>
@@ -13494,7 +14311,7 @@
       <c r="G270" t="s">
         <v>917</v>
       </c>
-      <c r="H270" s="5">
+      <c r="H270">
         <v>0.73</v>
       </c>
       <c r="I270">
@@ -13504,13 +14321,16 @@
         <v>918</v>
       </c>
       <c r="K270">
-        <v>0</v>
-      </c>
-      <c r="L270" t="s">
+        <v>0.90376138687133789</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>920</v>
       </c>
@@ -13532,7 +14352,7 @@
       <c r="G271" t="s">
         <v>923</v>
       </c>
-      <c r="H271" s="5">
+      <c r="H271">
         <v>0.16</v>
       </c>
       <c r="I271">
@@ -13542,13 +14362,16 @@
         <v>924</v>
       </c>
       <c r="K271">
-        <v>1</v>
-      </c>
-      <c r="L271" t="s">
+        <v>0.96731775999069214</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>926</v>
       </c>
@@ -13570,7 +14393,7 @@
       <c r="G272" t="s">
         <v>929</v>
       </c>
-      <c r="H272" s="5">
+      <c r="H272">
         <v>0</v>
       </c>
       <c r="I272">
@@ -13580,13 +14403,16 @@
         <v>930</v>
       </c>
       <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272" t="s">
+        <v>0.95135211944580078</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>932</v>
       </c>
@@ -13608,7 +14434,7 @@
       <c r="G273" t="s">
         <v>935</v>
       </c>
-      <c r="H273" s="5">
+      <c r="H273">
         <v>0</v>
       </c>
       <c r="I273">
@@ -13618,13 +14444,16 @@
         <v>936</v>
       </c>
       <c r="K273">
-        <v>1</v>
-      </c>
-      <c r="L273" t="s">
+        <v>0.9436347484588623</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>938</v>
       </c>
@@ -13646,7 +14475,7 @@
       <c r="G274" t="s">
         <v>940</v>
       </c>
-      <c r="H274" s="5">
+      <c r="H274">
         <v>0</v>
       </c>
       <c r="I274">
@@ -13656,13 +14485,16 @@
         <v>941</v>
       </c>
       <c r="K274">
-        <v>0</v>
-      </c>
-      <c r="L274" t="s">
+        <v>0.60473847389221191</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>943</v>
       </c>
@@ -13684,7 +14516,7 @@
       <c r="G275" t="s">
         <v>946</v>
       </c>
-      <c r="H275" s="5">
+      <c r="H275">
         <v>0</v>
       </c>
       <c r="I275">
@@ -13694,13 +14526,16 @@
         <v>947</v>
       </c>
       <c r="K275">
-        <v>1</v>
-      </c>
-      <c r="L275" t="s">
+        <v>0.61801713705062866</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>949</v>
       </c>
@@ -13722,7 +14557,7 @@
       <c r="G276" t="s">
         <v>952</v>
       </c>
-      <c r="H276" s="5">
+      <c r="H276">
         <v>0.52</v>
       </c>
       <c r="I276">
@@ -13732,13 +14567,16 @@
         <v>953</v>
       </c>
       <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+        <v>0.92680442333221436</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>955</v>
       </c>
@@ -13760,7 +14598,7 @@
       <c r="G277" t="s">
         <v>958</v>
       </c>
-      <c r="H277" s="5">
+      <c r="H277">
         <v>0.77</v>
       </c>
       <c r="I277">
@@ -13770,13 +14608,16 @@
         <v>443</v>
       </c>
       <c r="K277">
-        <v>1</v>
-      </c>
-      <c r="L277" t="s">
+        <v>0.99247282743453979</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>959</v>
       </c>
@@ -13798,7 +14639,7 @@
       <c r="G278" t="s">
         <v>14</v>
       </c>
-      <c r="H278" s="5">
+      <c r="H278">
         <v>1</v>
       </c>
       <c r="I278">
@@ -13810,8 +14651,11 @@
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>961</v>
       </c>
@@ -13833,7 +14677,7 @@
       <c r="G279" t="s">
         <v>964</v>
       </c>
-      <c r="H279" s="5">
+      <c r="H279">
         <v>1</v>
       </c>
       <c r="I279">
@@ -13843,10 +14687,13 @@
         <v>965</v>
       </c>
       <c r="K279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>966</v>
       </c>
@@ -13868,7 +14715,7 @@
       <c r="G280" t="s">
         <v>14</v>
       </c>
-      <c r="H280" s="5">
+      <c r="H280">
         <v>1</v>
       </c>
       <c r="I280">
@@ -13878,10 +14725,13 @@
         <v>15</v>
       </c>
       <c r="K280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>968</v>
       </c>
@@ -13903,7 +14753,7 @@
       <c r="G281" t="s">
         <v>14</v>
       </c>
-      <c r="H281" s="5">
+      <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
@@ -13913,10 +14763,13 @@
         <v>15</v>
       </c>
       <c r="K281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>970</v>
       </c>
@@ -13938,7 +14791,7 @@
       <c r="G282" t="s">
         <v>14</v>
       </c>
-      <c r="H282" s="5">
+      <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
@@ -13950,8 +14803,11 @@
       <c r="K282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>972</v>
       </c>
@@ -13973,7 +14829,7 @@
       <c r="G283" t="s">
         <v>975</v>
       </c>
-      <c r="H283" s="5">
+      <c r="H283">
         <v>0.15</v>
       </c>
       <c r="I283">
@@ -13983,13 +14839,16 @@
         <v>976</v>
       </c>
       <c r="K283">
-        <v>0</v>
-      </c>
-      <c r="L283" t="s">
+        <v>0.60290861129760742</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>978</v>
       </c>
@@ -14011,7 +14870,7 @@
       <c r="G284" t="s">
         <v>981</v>
       </c>
-      <c r="H284" s="5">
+      <c r="H284">
         <v>0.92</v>
       </c>
       <c r="I284">
@@ -14021,10 +14880,13 @@
         <v>716</v>
       </c>
       <c r="K284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>982</v>
       </c>
@@ -14046,7 +14908,7 @@
       <c r="G285" t="s">
         <v>985</v>
       </c>
-      <c r="H285" s="5">
+      <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
@@ -14058,8 +14920,11 @@
       <c r="K285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>986</v>
       </c>
@@ -14081,7 +14946,7 @@
       <c r="G286" t="s">
         <v>989</v>
       </c>
-      <c r="H286" s="5">
+      <c r="H286">
         <v>0.21</v>
       </c>
       <c r="I286">
@@ -14091,13 +14956,16 @@
         <v>990</v>
       </c>
       <c r="K286">
-        <v>0</v>
-      </c>
-      <c r="L286" t="s">
+        <v>0.69331890344619751</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>992</v>
       </c>
@@ -14119,7 +14987,7 @@
       <c r="G287" t="s">
         <v>14</v>
       </c>
-      <c r="H287" s="5">
+      <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
@@ -14131,8 +14999,11 @@
       <c r="K287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>994</v>
       </c>
@@ -14154,7 +15025,7 @@
       <c r="G288" t="s">
         <v>14</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
@@ -14166,8 +15037,11 @@
       <c r="K288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>996</v>
       </c>
@@ -14189,7 +15063,7 @@
       <c r="G289" t="s">
         <v>999</v>
       </c>
-      <c r="H289" s="5">
+      <c r="H289">
         <v>0.92</v>
       </c>
       <c r="I289">
@@ -14201,8 +15075,11 @@
       <c r="K289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1001</v>
       </c>
@@ -14224,7 +15101,7 @@
       <c r="G290" t="s">
         <v>14</v>
       </c>
-      <c r="H290" s="5">
+      <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
@@ -14236,8 +15113,11 @@
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1003</v>
       </c>
@@ -14259,7 +15139,7 @@
       <c r="G291" t="s">
         <v>14</v>
       </c>
-      <c r="H291" s="5">
+      <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
@@ -14269,10 +15149,13 @@
         <v>15</v>
       </c>
       <c r="K291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1005</v>
       </c>
@@ -14294,7 +15177,7 @@
       <c r="G292" t="s">
         <v>1008</v>
       </c>
-      <c r="H292" s="5">
+      <c r="H292">
         <v>0.9</v>
       </c>
       <c r="I292">
@@ -14304,10 +15187,13 @@
         <v>1009</v>
       </c>
       <c r="K292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99675357341766357</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1010</v>
       </c>
@@ -14329,7 +15215,7 @@
       <c r="G293" t="s">
         <v>14</v>
       </c>
-      <c r="H293" s="5">
+      <c r="H293">
         <v>1</v>
       </c>
       <c r="I293">
@@ -14339,10 +15225,13 @@
         <v>15</v>
       </c>
       <c r="K293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1012</v>
       </c>
@@ -14364,7 +15253,7 @@
       <c r="G294" t="s">
         <v>1015</v>
       </c>
-      <c r="H294" s="5">
+      <c r="H294">
         <v>0.66</v>
       </c>
       <c r="I294">
@@ -14374,13 +15263,16 @@
         <v>1016</v>
       </c>
       <c r="K294">
-        <v>0</v>
-      </c>
-      <c r="L294" t="s">
+        <v>0.97107410430908203</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1018</v>
       </c>
@@ -14402,7 +15294,7 @@
       <c r="G295" t="s">
         <v>1021</v>
       </c>
-      <c r="H295" s="5">
+      <c r="H295">
         <v>1</v>
       </c>
       <c r="I295">
@@ -14412,10 +15304,13 @@
         <v>1022</v>
       </c>
       <c r="K295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1023</v>
       </c>
@@ -14437,7 +15332,7 @@
       <c r="G296" t="s">
         <v>1026</v>
       </c>
-      <c r="H296" s="5">
+      <c r="H296">
         <v>1</v>
       </c>
       <c r="I296">
@@ -14447,10 +15342,13 @@
         <v>1027</v>
       </c>
       <c r="K296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1028</v>
       </c>
@@ -14472,7 +15370,7 @@
       <c r="G297" t="s">
         <v>14</v>
       </c>
-      <c r="H297" s="5">
+      <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
@@ -14484,8 +15382,11 @@
       <c r="K297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1030</v>
       </c>
@@ -14507,7 +15408,7 @@
       <c r="G298" t="s">
         <v>1033</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298">
         <v>0.83</v>
       </c>
       <c r="I298">
@@ -14517,10 +15418,13 @@
         <v>1034</v>
       </c>
       <c r="K298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99217808246612549</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1035</v>
       </c>
@@ -14542,7 +15446,7 @@
       <c r="G299" t="s">
         <v>14</v>
       </c>
-      <c r="H299" s="5">
+      <c r="H299">
         <v>1</v>
       </c>
       <c r="I299">
@@ -14554,8 +15458,11 @@
       <c r="K299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1037</v>
       </c>
@@ -14577,7 +15484,7 @@
       <c r="G300" t="s">
         <v>1040</v>
       </c>
-      <c r="H300" s="5">
+      <c r="H300">
         <v>0.69</v>
       </c>
       <c r="I300">
@@ -14587,13 +15494,16 @@
         <v>1009</v>
       </c>
       <c r="K300">
-        <v>1</v>
-      </c>
-      <c r="L300" t="s">
+        <v>0.96474218368530273</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1042</v>
       </c>
@@ -14615,7 +15525,7 @@
       <c r="G301" t="s">
         <v>14</v>
       </c>
-      <c r="H301" s="5">
+      <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
@@ -14627,8 +15537,11 @@
       <c r="K301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1044</v>
       </c>
@@ -14650,7 +15563,7 @@
       <c r="G302" t="s">
         <v>1047</v>
       </c>
-      <c r="H302" s="5">
+      <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
@@ -14660,10 +15573,13 @@
         <v>1048</v>
       </c>
       <c r="K302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1049</v>
       </c>
@@ -14685,7 +15601,7 @@
       <c r="G303" t="s">
         <v>1052</v>
       </c>
-      <c r="H303" s="5">
+      <c r="H303">
         <v>0.56000000000000005</v>
       </c>
       <c r="I303">
@@ -14695,13 +15611,16 @@
         <v>1053</v>
       </c>
       <c r="K303">
-        <v>1</v>
-      </c>
-      <c r="L303" t="s">
+        <v>0.96609675884246826</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1055</v>
       </c>
@@ -14723,7 +15642,7 @@
       <c r="G304" t="s">
         <v>1058</v>
       </c>
-      <c r="H304" s="5">
+      <c r="H304">
         <v>0.56999999999999995</v>
       </c>
       <c r="I304">
@@ -14733,13 +15652,16 @@
         <v>1059</v>
       </c>
       <c r="K304">
-        <v>0</v>
-      </c>
-      <c r="L304" t="s">
+        <v>0.89212089776992798</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1061</v>
       </c>
@@ -14761,7 +15683,7 @@
       <c r="G305" t="s">
         <v>14</v>
       </c>
-      <c r="H305" s="5">
+      <c r="H305">
         <v>1</v>
       </c>
       <c r="I305">
@@ -14773,8 +15695,11 @@
       <c r="K305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1063</v>
       </c>
@@ -14796,7 +15721,7 @@
       <c r="G306" t="s">
         <v>1066</v>
       </c>
-      <c r="H306" s="5">
+      <c r="H306">
         <v>0.93</v>
       </c>
       <c r="I306">
@@ -14806,10 +15731,13 @@
         <v>1067</v>
       </c>
       <c r="K306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99905514717102051</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1068</v>
       </c>
@@ -14831,7 +15759,7 @@
       <c r="G307" t="s">
         <v>14</v>
       </c>
-      <c r="H307" s="5">
+      <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
@@ -14843,8 +15771,11 @@
       <c r="K307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1070</v>
       </c>
@@ -14866,7 +15797,7 @@
       <c r="G308" t="s">
         <v>1073</v>
       </c>
-      <c r="H308" s="5">
+      <c r="H308">
         <v>0.97</v>
       </c>
       <c r="I308">
@@ -14876,10 +15807,13 @@
         <v>1074</v>
       </c>
       <c r="K308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9993901252746582</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1075</v>
       </c>
@@ -14901,7 +15835,7 @@
       <c r="G309" t="s">
         <v>1078</v>
       </c>
-      <c r="H309" s="5">
+      <c r="H309">
         <v>1</v>
       </c>
       <c r="I309">
@@ -14911,10 +15845,13 @@
         <v>965</v>
       </c>
       <c r="K309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1079</v>
       </c>
@@ -14936,7 +15873,7 @@
       <c r="G310" t="s">
         <v>14</v>
       </c>
-      <c r="H310" s="5">
+      <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
@@ -14946,10 +15883,13 @@
         <v>15</v>
       </c>
       <c r="K310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1081</v>
       </c>
@@ -14971,7 +15911,7 @@
       <c r="G311" t="s">
         <v>1084</v>
       </c>
-      <c r="H311" s="5">
+      <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
@@ -14981,10 +15921,13 @@
         <v>107</v>
       </c>
       <c r="K311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1085</v>
       </c>
@@ -15006,7 +15949,7 @@
       <c r="G312" t="s">
         <v>1088</v>
       </c>
-      <c r="H312" s="5">
+      <c r="H312">
         <v>0.94</v>
       </c>
       <c r="I312">
@@ -15016,10 +15959,13 @@
         <v>1089</v>
       </c>
       <c r="K312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99932801723480225</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1090</v>
       </c>
@@ -15041,7 +15987,7 @@
       <c r="G313" t="s">
         <v>1093</v>
       </c>
-      <c r="H313" s="5">
+      <c r="H313">
         <v>0.89</v>
       </c>
       <c r="I313">
@@ -15051,10 +15997,13 @@
         <v>1094</v>
       </c>
       <c r="K313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1095</v>
       </c>
@@ -15076,7 +16025,7 @@
       <c r="G314" t="s">
         <v>1098</v>
       </c>
-      <c r="H314" s="5">
+      <c r="H314">
         <v>0.54</v>
       </c>
       <c r="I314">
@@ -15086,13 +16035,16 @@
         <v>1099</v>
       </c>
       <c r="K314">
-        <v>0</v>
-      </c>
-      <c r="L314" t="s">
+        <v>0.86104661226272583</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1101</v>
       </c>
@@ -15114,7 +16066,7 @@
       <c r="G315" t="s">
         <v>1104</v>
       </c>
-      <c r="H315" s="5">
+      <c r="H315">
         <v>0.9</v>
       </c>
       <c r="I315">
@@ -15124,10 +16076,13 @@
         <v>1105</v>
       </c>
       <c r="K315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99855303764343262</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1106</v>
       </c>
@@ -15149,7 +16104,7 @@
       <c r="G316" t="s">
         <v>1109</v>
       </c>
-      <c r="H316" s="5">
+      <c r="H316">
         <v>0.92</v>
       </c>
       <c r="I316">
@@ -15159,13 +16114,16 @@
         <v>1110</v>
       </c>
       <c r="K316">
-        <v>0</v>
-      </c>
-      <c r="L316" t="s">
+        <v>0.99138367176055908</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1112</v>
       </c>
@@ -15187,7 +16145,7 @@
       <c r="G317" t="s">
         <v>14</v>
       </c>
-      <c r="H317" s="5">
+      <c r="H317">
         <v>1</v>
       </c>
       <c r="I317">
@@ -15197,10 +16155,13 @@
         <v>15</v>
       </c>
       <c r="K317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1114</v>
       </c>
@@ -15222,7 +16183,7 @@
       <c r="G318" t="s">
         <v>1117</v>
       </c>
-      <c r="H318" s="5">
+      <c r="H318">
         <v>0.9</v>
       </c>
       <c r="I318">
@@ -15232,10 +16193,13 @@
         <v>1118</v>
       </c>
       <c r="K318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99656999111175537</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1119</v>
       </c>
@@ -15257,7 +16221,7 @@
       <c r="G319" t="s">
         <v>1122</v>
       </c>
-      <c r="H319" s="5">
+      <c r="H319">
         <v>0.41</v>
       </c>
       <c r="I319">
@@ -15267,13 +16231,16 @@
         <v>1123</v>
       </c>
       <c r="K319">
-        <v>0</v>
-      </c>
-      <c r="L319" t="s">
+        <v>0.98429077863693237</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1125</v>
       </c>
@@ -15295,7 +16262,7 @@
       <c r="G320" t="s">
         <v>14</v>
       </c>
-      <c r="H320" s="5">
+      <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
@@ -15305,10 +16272,13 @@
         <v>15</v>
       </c>
       <c r="K320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1127</v>
       </c>
@@ -15330,7 +16300,7 @@
       <c r="G321" t="s">
         <v>1130</v>
       </c>
-      <c r="H321" s="5">
+      <c r="H321">
         <v>0.98</v>
       </c>
       <c r="I321">
@@ -15340,10 +16310,13 @@
         <v>1131</v>
       </c>
       <c r="K321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99951040744781494</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1132</v>
       </c>
@@ -15365,7 +16338,7 @@
       <c r="G322" t="s">
         <v>14</v>
       </c>
-      <c r="H322" s="5">
+      <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
@@ -15377,8 +16350,11 @@
       <c r="K322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1134</v>
       </c>
@@ -15400,7 +16376,7 @@
       <c r="G323" t="s">
         <v>14</v>
       </c>
-      <c r="H323" s="5">
+      <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
@@ -15412,8 +16388,11 @@
       <c r="K323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1136</v>
       </c>
@@ -15435,7 +16414,7 @@
       <c r="G324" t="s">
         <v>1139</v>
       </c>
-      <c r="H324" s="5">
+      <c r="H324">
         <v>0.95</v>
       </c>
       <c r="I324">
@@ -15445,10 +16424,13 @@
         <v>1140</v>
       </c>
       <c r="K324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99931132793426514</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1141</v>
       </c>
@@ -15470,7 +16452,7 @@
       <c r="G325" t="s">
         <v>1144</v>
       </c>
-      <c r="H325" s="5">
+      <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
@@ -15482,8 +16464,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1146</v>
       </c>
@@ -15505,7 +16490,7 @@
       <c r="G326" t="s">
         <v>14</v>
       </c>
-      <c r="H326" s="5">
+      <c r="H326">
         <v>1</v>
       </c>
       <c r="I326">
@@ -15515,10 +16500,13 @@
         <v>15</v>
       </c>
       <c r="K326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1148</v>
       </c>
@@ -15540,7 +16528,7 @@
       <c r="G327" t="s">
         <v>14</v>
       </c>
-      <c r="H327" s="5">
+      <c r="H327">
         <v>1</v>
       </c>
       <c r="I327">
@@ -15550,6 +16538,9 @@
         <v>15</v>
       </c>
       <c r="K327">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L327">
         <v>1</v>
       </c>
     </row>
@@ -15563,7 +16554,7 @@
   <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
